--- a/assets/files/løbende-total.xlsx
+++ b/assets/files/løbende-total.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuehe\Documents\GitHub\www\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A65B0388-937A-4741-97BA-A72990F01EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85E72AF-8D27-42CB-BFC9-C2495D435F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D94FA26C-BBA4-4327-89FA-90D80E41F725}"/>
+    <workbookView xWindow="3090" yWindow="2925" windowWidth="17595" windowHeight="12555" xr2:uid="{D94FA26C-BBA4-4327-89FA-90D80E41F725}"/>
   </bookViews>
   <sheets>
     <sheet name="Data er IKKE i en Tabel" sheetId="2" r:id="rId1"/>
-    <sheet name="Data er i en Tabel" sheetId="1" r:id="rId2"/>
+    <sheet name="Data i Tabel" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,16 +136,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,12 +162,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -196,13 +182,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -222,20 +202,52 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -255,32 +267,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -295,19 +281,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53C41619-A257-4537-B549-2DB50E0B66D9}" name="Tabel1" displayName="Tabel1" ref="A3:F14" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53C41619-A257-4537-B549-2DB50E0B66D9}" name="Tabel1" displayName="Tabel1" ref="A2:F13" totalsRowShown="0" headerRowDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3D91DE11-3418-424E-A1F3-C08F37712706}" name="Dato" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{9E4268FB-5B66-4F6E-A7F2-F92026E5A0D9}" name="Beløb" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{79287740-6F55-46D8-B354-9F5BA42E9415}" name="Løbende Saldeo_x000a_Metode 1" dataDxfId="4">
-      <calculatedColumnFormula>SUM($B$4:B4)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{3D91DE11-3418-424E-A1F3-C08F37712706}" name="Dato" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9E4268FB-5B66-4F6E-A7F2-F92026E5A0D9}" name="Beløb" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{79287740-6F55-46D8-B354-9F5BA42E9415}" name="Løbende Saldeo_x000a_Metode 1" dataDxfId="3">
+      <calculatedColumnFormula>SUM($B$3:B3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{776AB565-8083-41CD-A766-D1F08256C4A1}" name="Formel 1" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{776AB565-8083-41CD-A766-D1F08256C4A1}" name="Formel 1" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EF341F7B-4B62-4385-915B-32C08A0ADAA9}" name="Løbende Saldeo_x000a_Metode 2" dataDxfId="2">
-      <calculatedColumnFormula>SUM(INDEX(Tabel1[[#This Row],[Beløb]],1):Tabel1[[#This Row],[Beløb]])</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{EF341F7B-4B62-4385-915B-32C08A0ADAA9}" name="Løbende Saldeo_x000a_Metode 2" dataDxfId="0">
+      <calculatedColumnFormula>SUM(INDEX(Tabel1[Beløb],1):Tabel1[[#This Row],[Beløb]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{CFC987DB-CEF6-4181-8CFC-402B0FF7F818}" name="Formel 2" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
@@ -620,309 +606,309 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>44734</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>632</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <f>B3</f>
         <v>632</v>
       </c>
-      <c r="D3" s="14" t="str">
+      <c r="D3" s="12" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C3)</f>
         <v>=B3</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <f>SUM($B$3:B3)</f>
         <v>632</v>
       </c>
-      <c r="F3" s="15" t="str">
+      <c r="F3" s="13" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E3)</f>
         <v>=SUM($B$3:B3)</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>44735</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>124</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <f>B4+C3</f>
         <v>756</v>
       </c>
-      <c r="D4" s="14" t="str">
+      <c r="D4" s="12" t="str">
         <f t="shared" ref="D4:D13" ca="1" si="0">_xlfn.FORMULATEXT(C4)</f>
         <v>=B4+C3</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <f>SUM($B$3:B4)</f>
         <v>756</v>
       </c>
-      <c r="F4" s="15" t="str">
+      <c r="F4" s="13" t="str">
         <f t="shared" ref="F4:F13" ca="1" si="1">_xlfn.FORMULATEXT(E4)</f>
         <v>=SUM($B$3:B4)</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>44736</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>610</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C13" si="2">B5+C4</f>
         <v>1366</v>
       </c>
-      <c r="D5" s="14" t="str">
+      <c r="D5" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=B5+C4</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <f>SUM($B$3:B5)</f>
         <v>1366</v>
       </c>
-      <c r="F5" s="15" t="str">
+      <c r="F5" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUM($B$3:B5)</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>44737</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>955</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <f t="shared" si="2"/>
         <v>2321</v>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D6" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=B6+C5</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <f>SUM($B$3:B6)</f>
         <v>2321</v>
       </c>
-      <c r="F6" s="15" t="str">
+      <c r="F6" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUM($B$3:B6)</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>44738</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>737</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <f t="shared" si="2"/>
         <v>3058</v>
       </c>
-      <c r="D7" s="14" t="str">
+      <c r="D7" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=B7+C6</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <f>SUM($B$3:B7)</f>
         <v>3058</v>
       </c>
-      <c r="F7" s="15" t="str">
+      <c r="F7" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUM($B$3:B7)</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>44739</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>832</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <f t="shared" si="2"/>
         <v>3890</v>
       </c>
-      <c r="D8" s="14" t="str">
+      <c r="D8" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=B8+C7</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <f>SUM($B$3:B8)</f>
         <v>3890</v>
       </c>
-      <c r="F8" s="15" t="str">
+      <c r="F8" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUM($B$3:B8)</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>44740</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>115</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <f t="shared" si="2"/>
         <v>4005</v>
       </c>
-      <c r="D9" s="14" t="str">
+      <c r="D9" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=B9+C8</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <f>SUM($B$3:B9)</f>
         <v>4005</v>
       </c>
-      <c r="F9" s="15" t="str">
+      <c r="F9" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUM($B$3:B9)</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>44741</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>147</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <f t="shared" si="2"/>
         <v>4152</v>
       </c>
-      <c r="D10" s="14" t="str">
+      <c r="D10" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=B10+C9</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <f>SUM($B$3:B10)</f>
         <v>4152</v>
       </c>
-      <c r="F10" s="15" t="str">
+      <c r="F10" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUM($B$3:B10)</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>44742</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>1090</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <f t="shared" si="2"/>
         <v>5242</v>
       </c>
-      <c r="D11" s="14" t="str">
+      <c r="D11" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=B11+C10</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <f>SUM($B$3:B11)</f>
         <v>5242</v>
       </c>
-      <c r="F11" s="15" t="str">
+      <c r="F11" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUM($B$3:B11)</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>44743</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>202</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <f t="shared" si="2"/>
         <v>5444</v>
       </c>
-      <c r="D12" s="14" t="str">
+      <c r="D12" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=B12+C11</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <f>SUM($B$3:B12)</f>
         <v>5444</v>
       </c>
-      <c r="F12" s="15" t="str">
+      <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUM($B$3:B12)</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>44744</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>800</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <f t="shared" si="2"/>
         <v>6244</v>
       </c>
-      <c r="D13" s="14" t="str">
+      <c r="D13" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=B13+C12</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <f>SUM($B$3:B13)</f>
         <v>6244</v>
       </c>
-      <c r="F13" s="15" t="str">
+      <c r="F13" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUM($B$3:B13)</v>
       </c>
@@ -933,6 +919,10 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E3 E13" formula="1"/>
+    <ignoredError sqref="E4:E12" formula="1" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -941,10 +931,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,340 +942,341 @@
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" s="14" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F2" s="18" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B3" s="3">
+        <v>632</v>
+      </c>
+      <c r="C3" s="3">
+        <f>SUM($B$3:B3)</f>
+        <v>632</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
+Metode 1]])</f>
+        <v>=SUM($B$3:B3)</v>
+      </c>
+      <c r="E3" s="3">
+        <f>SUM(INDEX(Tabel1[Beløb],1):Tabel1[[#This Row],[Beløb]])</f>
+        <v>632</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
+Metode 2]])</f>
+        <v>=SUM(INDEKS([Beløb];1):[@Beløb])</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="B4" s="3">
-        <v>632</v>
+        <v>124</v>
       </c>
       <c r="C4" s="3">
-        <f>SUM($B$4:B4)</f>
-        <v>632</v>
-      </c>
-      <c r="D4" s="7" t="str">
+        <f>SUM($B$3:B4)</f>
+        <v>756</v>
+      </c>
+      <c r="D4" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 1]])</f>
-        <v>=SUM($B$4:B4)</v>
+        <v>=SUM($B$3:B4)</v>
       </c>
       <c r="E4" s="3">
-        <f>SUM(INDEX(Tabel1[[#This Row],[Beløb]],1):Tabel1[[#This Row],[Beløb]])</f>
-        <v>632</v>
-      </c>
-      <c r="F4" s="7" t="str">
+        <f>SUM(INDEX(Tabel1[Beløb],1):Tabel1[[#This Row],[Beløb]])</f>
+        <v>756</v>
+      </c>
+      <c r="F4" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 2]])</f>
-        <v>=SUM(INDEKS([@Beløb];1):[@Beløb])</v>
+        <v>=SUM(INDEKS([Beløb];1):[@Beløb])</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="B5" s="3">
-        <v>124</v>
+        <v>610</v>
       </c>
       <c r="C5" s="3">
-        <f>SUM($B$4:B5)</f>
-        <v>756</v>
-      </c>
-      <c r="D5" s="7" t="str">
+        <f>SUM($B$3:B5)</f>
+        <v>1366</v>
+      </c>
+      <c r="D5" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 1]])</f>
-        <v>=SUM($B$4:B5)</v>
+        <v>=SUM($B$3:B5)</v>
       </c>
       <c r="E5" s="3">
-        <f>SUM(INDEX(Tabel1[[#This Row],[Beløb]],1):Tabel1[[#This Row],[Beløb]])</f>
-        <v>124</v>
-      </c>
-      <c r="F5" s="7" t="str">
+        <f>SUM(INDEX(Tabel1[Beløb],1):Tabel1[[#This Row],[Beløb]])</f>
+        <v>1366</v>
+      </c>
+      <c r="F5" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 2]])</f>
-        <v>=SUM(INDEKS([@Beløb];1):[@Beløb])</v>
+        <v>=SUM(INDEKS([Beløb];1):[@Beløb])</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44736</v>
+        <v>44737</v>
       </c>
       <c r="B6" s="3">
-        <v>610</v>
+        <v>955</v>
       </c>
       <c r="C6" s="3">
-        <f>SUM($B$4:B6)</f>
-        <v>1366</v>
-      </c>
-      <c r="D6" s="7" t="str">
+        <f>SUM($B$3:B6)</f>
+        <v>2321</v>
+      </c>
+      <c r="D6" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 1]])</f>
-        <v>=SUM($B$4:B6)</v>
+        <v>=SUM($B$3:B6)</v>
       </c>
       <c r="E6" s="3">
-        <f>SUM(INDEX(Tabel1[[#This Row],[Beløb]],1):Tabel1[[#This Row],[Beløb]])</f>
-        <v>610</v>
-      </c>
-      <c r="F6" s="7" t="str">
+        <f>SUM(INDEX(Tabel1[Beløb],1):Tabel1[[#This Row],[Beløb]])</f>
+        <v>2321</v>
+      </c>
+      <c r="F6" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 2]])</f>
-        <v>=SUM(INDEKS([@Beløb];1):[@Beløb])</v>
+        <v>=SUM(INDEKS([Beløb];1):[@Beløb])</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44737</v>
+        <v>44738</v>
       </c>
       <c r="B7" s="3">
-        <v>955</v>
+        <v>737</v>
       </c>
       <c r="C7" s="3">
-        <f>SUM($B$4:B7)</f>
-        <v>2321</v>
-      </c>
-      <c r="D7" s="7" t="str">
+        <f>SUM($B$3:B7)</f>
+        <v>3058</v>
+      </c>
+      <c r="D7" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 1]])</f>
-        <v>=SUM($B$4:B7)</v>
+        <v>=SUM($B$3:B7)</v>
       </c>
       <c r="E7" s="3">
-        <f>SUM(INDEX(Tabel1[[#This Row],[Beløb]],1):Tabel1[[#This Row],[Beløb]])</f>
-        <v>955</v>
-      </c>
-      <c r="F7" s="7" t="str">
+        <f>SUM(INDEX(Tabel1[Beløb],1):Tabel1[[#This Row],[Beløb]])</f>
+        <v>3058</v>
+      </c>
+      <c r="F7" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 2]])</f>
-        <v>=SUM(INDEKS([@Beløb];1):[@Beløb])</v>
+        <v>=SUM(INDEKS([Beløb];1):[@Beløb])</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44738</v>
+        <v>44739</v>
       </c>
       <c r="B8" s="3">
-        <v>737</v>
+        <v>832</v>
       </c>
       <c r="C8" s="3">
-        <f>SUM($B$4:B8)</f>
-        <v>3058</v>
-      </c>
-      <c r="D8" s="7" t="str">
+        <f>SUM($B$3:B8)</f>
+        <v>3890</v>
+      </c>
+      <c r="D8" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 1]])</f>
-        <v>=SUM($B$4:B8)</v>
+        <v>=SUM($B$3:B8)</v>
       </c>
       <c r="E8" s="3">
-        <f>SUM(INDEX(Tabel1[[#This Row],[Beløb]],1):Tabel1[[#This Row],[Beløb]])</f>
-        <v>737</v>
-      </c>
-      <c r="F8" s="7" t="str">
+        <f>SUM(INDEX(Tabel1[Beløb],1):Tabel1[[#This Row],[Beløb]])</f>
+        <v>3890</v>
+      </c>
+      <c r="F8" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 2]])</f>
-        <v>=SUM(INDEKS([@Beløb];1):[@Beløb])</v>
+        <v>=SUM(INDEKS([Beløb];1):[@Beløb])</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44739</v>
+        <v>44740</v>
       </c>
       <c r="B9" s="3">
-        <v>832</v>
+        <v>115</v>
       </c>
       <c r="C9" s="3">
-        <f>SUM($B$4:B9)</f>
-        <v>3890</v>
-      </c>
-      <c r="D9" s="7" t="str">
+        <f>SUM($B$3:B9)</f>
+        <v>4005</v>
+      </c>
+      <c r="D9" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 1]])</f>
-        <v>=SUM($B$4:B9)</v>
+        <v>=SUM($B$3:B9)</v>
       </c>
       <c r="E9" s="3">
-        <f>SUM(INDEX(Tabel1[[#This Row],[Beløb]],1):Tabel1[[#This Row],[Beløb]])</f>
-        <v>832</v>
-      </c>
-      <c r="F9" s="7" t="str">
+        <f>SUM(INDEX(Tabel1[Beløb],1):Tabel1[[#This Row],[Beløb]])</f>
+        <v>4005</v>
+      </c>
+      <c r="F9" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 2]])</f>
-        <v>=SUM(INDEKS([@Beløb];1):[@Beløb])</v>
+        <v>=SUM(INDEKS([Beløb];1):[@Beløb])</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="B10" s="3">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="C10" s="3">
-        <f>SUM($B$4:B10)</f>
-        <v>4005</v>
-      </c>
-      <c r="D10" s="7" t="str">
+        <f>SUM($B$3:B10)</f>
+        <v>4152</v>
+      </c>
+      <c r="D10" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 1]])</f>
-        <v>=SUM($B$4:B10)</v>
+        <v>=SUM($B$3:B10)</v>
       </c>
       <c r="E10" s="3">
-        <f>SUM(INDEX(Tabel1[[#This Row],[Beløb]],1):Tabel1[[#This Row],[Beløb]])</f>
-        <v>115</v>
-      </c>
-      <c r="F10" s="7" t="str">
+        <f>SUM(INDEX(Tabel1[Beløb],1):Tabel1[[#This Row],[Beløb]])</f>
+        <v>4152</v>
+      </c>
+      <c r="F10" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 2]])</f>
-        <v>=SUM(INDEKS([@Beløb];1):[@Beløb])</v>
+        <v>=SUM(INDEKS([Beløb];1):[@Beløb])</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="B11" s="3">
-        <v>147</v>
+        <v>1090</v>
       </c>
       <c r="C11" s="3">
-        <f>SUM($B$4:B11)</f>
-        <v>4152</v>
-      </c>
-      <c r="D11" s="7" t="str">
+        <f>SUM($B$3:B11)</f>
+        <v>5242</v>
+      </c>
+      <c r="D11" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 1]])</f>
-        <v>=SUM($B$4:B11)</v>
+        <v>=SUM($B$3:B11)</v>
       </c>
       <c r="E11" s="3">
-        <f>SUM(INDEX(Tabel1[[#This Row],[Beløb]],1):Tabel1[[#This Row],[Beløb]])</f>
-        <v>147</v>
-      </c>
-      <c r="F11" s="7" t="str">
+        <f>SUM(INDEX(Tabel1[Beløb],1):Tabel1[[#This Row],[Beløb]])</f>
+        <v>5242</v>
+      </c>
+      <c r="F11" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 2]])</f>
-        <v>=SUM(INDEKS([@Beløb];1):[@Beløb])</v>
+        <v>=SUM(INDEKS([Beløb];1):[@Beløb])</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B12" s="3">
-        <v>1090</v>
+        <v>202</v>
       </c>
       <c r="C12" s="3">
-        <f>SUM($B$4:B12)</f>
-        <v>5242</v>
-      </c>
-      <c r="D12" s="7" t="str">
+        <f>SUM($B$3:B12)</f>
+        <v>5444</v>
+      </c>
+      <c r="D12" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 1]])</f>
-        <v>=SUM($B$4:B12)</v>
+        <v>=SUM($B$3:B12)</v>
       </c>
       <c r="E12" s="3">
-        <f>SUM(INDEX(Tabel1[[#This Row],[Beløb]],1):Tabel1[[#This Row],[Beløb]])</f>
-        <v>1090</v>
-      </c>
-      <c r="F12" s="7" t="str">
+        <f>SUM(INDEX(Tabel1[Beløb],1):Tabel1[[#This Row],[Beløb]])</f>
+        <v>5444</v>
+      </c>
+      <c r="F12" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 2]])</f>
-        <v>=SUM(INDEKS([@Beløb];1):[@Beløb])</v>
+        <v>=SUM(INDEKS([Beløb];1):[@Beløb])</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44743</v>
+        <v>44744</v>
       </c>
       <c r="B13" s="3">
-        <v>202</v>
+        <v>800</v>
       </c>
       <c r="C13" s="3">
-        <f>SUM($B$4:B13)</f>
-        <v>5444</v>
-      </c>
-      <c r="D13" s="7" t="str">
+        <f>SUM($B$3:B13)</f>
+        <v>6244</v>
+      </c>
+      <c r="D13" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 1]])</f>
-        <v>=SUM($B$4:B13)</v>
+        <v>=SUM($B$3:B13)</v>
       </c>
       <c r="E13" s="3">
-        <f>SUM(INDEX(Tabel1[[#This Row],[Beløb]],1):Tabel1[[#This Row],[Beløb]])</f>
-        <v>202</v>
-      </c>
-      <c r="F13" s="7" t="str">
+        <f>SUM(INDEX(Tabel1[Beløb],1):Tabel1[[#This Row],[Beløb]])</f>
+        <v>6244</v>
+      </c>
+      <c r="F13" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
 Metode 2]])</f>
-        <v>=SUM(INDEKS([@Beløb];1):[@Beløb])</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44744</v>
-      </c>
-      <c r="B14" s="3">
-        <v>800</v>
-      </c>
-      <c r="C14" s="3">
-        <f>SUM($B$4:B14)</f>
-        <v>6244</v>
-      </c>
-      <c r="D14" s="7" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
-Metode 1]])</f>
-        <v>=SUM($B$4:B14)</v>
-      </c>
-      <c r="E14" s="3">
-        <f>SUM(INDEX(Tabel1[[#This Row],[Beløb]],1):Tabel1[[#This Row],[Beløb]])</f>
-        <v>800</v>
-      </c>
-      <c r="F14" s="7" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(Tabel1[[#This Row],[Løbende Saldeo
-Metode 2]])</f>
-        <v>=SUM(INDEKS([@Beløb];1):[@Beløb])</v>
+        <v>=SUM(INDEKS([Beløb];1):[@Beløb])</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A14">
-    <sortCondition ref="A4:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A13">
+    <sortCondition ref="A3:A13"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C5:C13" formulaRange="1"/>
+    <ignoredError sqref="C4:C12" formulaRange="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>